--- a/data/NG_PROD_SUM_DC_NUS_MMCF_A.xlsx
+++ b/data/NG_PROD_SUM_DC_NUS_MMCF_A.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{091BCB74-F988-CE42-ADE7-1E0F4DADD7D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1"/>
+    <workbookView xWindow="4660" yWindow="460" windowWidth="16140" windowHeight="10000"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -12,6 +13,14 @@
   </sheets>
   <calcPr calcId="80000" iterateDelta="9.9999999999994451E-4"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -51,19 +60,19 @@
     <t>Annual</t>
   </si>
   <si>
-    <t>06/30/1900</t>
+    <t>6/30/1900</t>
   </si>
   <si>
     <t>Release Date:</t>
   </si>
   <si>
-    <t>07/31/2018</t>
+    <t>7/31/2020</t>
   </si>
   <si>
     <t>Next Release Date:</t>
   </si>
   <si>
-    <t>08/31/2018</t>
+    <t>8/31/2020</t>
   </si>
   <si>
     <t>Excel File Name:</t>
@@ -93,7 +102,7 @@
     <t>(202) 586-8800</t>
   </si>
   <si>
-    <t>07/27/2018 10:20:48 AM</t>
+    <t>7/29/2020 8:36:57 PM</t>
   </si>
   <si>
     <t>Data 1: U.S. Natural Gas Gross Withdrawals and Production</t>
@@ -690,7 +699,7 @@
   </sheetPr>
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -764,7 +773,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="17">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>11</v>
@@ -832,7 +841,7 @@
     <hyperlink ref="B7" location="'Data 1'!A1" display="Data 1"/>
     <hyperlink ref="C13" r:id="rId1"/>
     <hyperlink ref="C14" r:id="rId2" display="http://www.eia.gov/"/>
-    <hyperlink ref="C15" r:id="rId3" display="mailto:infoctr@eia.gov_x0003_"/>
+    <hyperlink ref="C15" r:id="rId3" display="mailto:infoctr@eia.gov_x0003__x0003_敤䱟I倀长哉߸ࢹ賛_xffff__x001d_ތ"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -845,10 +854,10 @@
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
@@ -868,7 +877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
@@ -907,7 +916,7 @@
       </c>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="1:13" ht="52" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="56" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>39</v>
       </c>
@@ -3586,37 +3595,37 @@
         <v>42551</v>
       </c>
       <c r="B120">
-        <v>32635511</v>
+        <v>32591578</v>
       </c>
       <c r="C120">
-        <v>8587319</v>
+        <v>7287858</v>
       </c>
       <c r="D120">
-        <v>6397637</v>
+        <v>6385120</v>
       </c>
       <c r="E120">
-        <v>16582399</v>
+        <v>17847539</v>
       </c>
       <c r="F120">
-        <v>1068156</v>
+        <v>1071062</v>
       </c>
       <c r="G120">
-        <v>3532511</v>
+        <v>3548106</v>
       </c>
       <c r="H120">
-        <v>210554</v>
+        <v>230410</v>
       </c>
       <c r="I120">
-        <v>413159</v>
+        <v>413013</v>
       </c>
       <c r="J120">
-        <v>28479288</v>
+        <v>28400049</v>
       </c>
       <c r="K120">
-        <v>1816514</v>
+        <v>1807934</v>
       </c>
       <c r="L120">
-        <v>26662774</v>
+        <v>26592115</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.15">
@@ -3624,20 +3633,90 @@
         <v>42916</v>
       </c>
       <c r="B121">
-        <v>33177826</v>
+        <v>33292113</v>
+      </c>
+      <c r="C121">
+        <v>6161420</v>
+      </c>
+      <c r="D121">
+        <v>6217438</v>
+      </c>
+      <c r="E121">
+        <v>19927602</v>
+      </c>
+      <c r="F121">
+        <v>985653</v>
+      </c>
+      <c r="I121">
+        <v>264582</v>
       </c>
       <c r="J121">
-        <v>28814028</v>
+        <v>29203550</v>
       </c>
       <c r="K121">
-        <v>1959740</v>
+        <v>1897242</v>
       </c>
       <c r="L121">
-        <v>26854288</v>
+        <v>27306308</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A122" s="14"/>
+      <c r="A122" s="14">
+        <v>43281</v>
+      </c>
+      <c r="B122">
+        <v>37129374</v>
+      </c>
+      <c r="C122">
+        <v>6350001</v>
+      </c>
+      <c r="D122">
+        <v>6275713</v>
+      </c>
+      <c r="E122">
+        <v>23550471</v>
+      </c>
+      <c r="F122">
+        <v>953189</v>
+      </c>
+      <c r="G122">
+        <v>3584274</v>
+      </c>
+      <c r="H122">
+        <v>468347</v>
+      </c>
+      <c r="I122">
+        <v>253459</v>
+      </c>
+      <c r="J122">
+        <v>32823295</v>
+      </c>
+      <c r="K122">
+        <v>2234593</v>
+      </c>
+      <c r="L122">
+        <v>30588702</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A123" s="14">
+        <v>43646</v>
+      </c>
+      <c r="B123">
+        <v>40704488</v>
+      </c>
+      <c r="J123">
+        <v>36197056</v>
+      </c>
+      <c r="K123">
+        <v>2540010</v>
+      </c>
+      <c r="L123">
+        <v>33657046</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A124" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
